--- a/PruebaEscritorio_I1.xlsx
+++ b/PruebaEscritorio_I1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Google Drive (baparedess@correo.udistrital.edu.co)\Universidad\2020-1\Sistemas Operativos\Concurrencia_SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8378E-F746-44E6-AA1A-AC0C9945E97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B1B381-3F20-4ADF-8A41-E7C012384CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2A4E9956-16CF-4970-B6D4-1FBA21026BA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2A4E9956-16CF-4970-B6D4-1FBA21026BA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Caso 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Caso 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
   <si>
     <t>Sentencia</t>
   </si>
@@ -121,6 +123,27 @@
   </si>
   <si>
     <t>llaves.leng &gt; 0 -&gt; 0 &gt; 0 -&gt; false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo de ejecución total (todos los procesos con el mismo tiempo): </t>
+  </si>
+  <si>
+    <t>Caso 1</t>
+  </si>
+  <si>
+    <t>Se finaliza el programa porque se vuelve un ciclo infinito</t>
+  </si>
+  <si>
+    <t>Depende del tiempo que se deje el ciclo.</t>
+  </si>
+  <si>
+    <t>Caso 2</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
   </si>
 </sst>
 </file>
@@ -162,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -185,19 +208,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,233 +629,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B1A84-0998-43C5-9CDD-760DD94FC280}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="4" style="5" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.28515625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C27" s="6">
+        <f>B27/4</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD7F44-74C0-449E-A302-1825E46AFF4A}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1"/>
+    <col min="3" max="3" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.28515625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -750,56 +1395,54 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -807,16 +1450,14 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -826,121 +1467,121 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -953,10 +1594,12 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -968,64 +1611,641 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="6">
+        <f>B25/4</f>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23567A70-9861-4EAB-AC68-5614745FE4F5}">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1"/>
+    <col min="3" max="3" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="N5" s="16">
+        <v>11454</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="16">
+        <v>7423</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="N7" s="16">
+        <v>3037</v>
+      </c>
+      <c r="O7" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="16">
+        <v>9023</v>
+      </c>
+      <c r="O8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6">
+        <v>30939</v>
+      </c>
+      <c r="C27" s="6">
+        <f>B27/4</f>
+        <v>7734.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PruebaEscritorio_I1.xlsx
+++ b/PruebaEscritorio_I1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Google Drive (baparedess@correo.udistrital.edu.co)\Universidad\2020-1\Sistemas Operativos\Concurrencia_SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B1B381-3F20-4ADF-8A41-E7C012384CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544A5C16-3762-408B-BEC1-385106670307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2A4E9956-16CF-4970-B6D4-1FBA21026BA9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
   <si>
     <t>Sentencia</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo de ejecución total (todos los procesos con tiempo aleatorio): </t>
   </si>
 </sst>
 </file>
@@ -281,15 +284,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +303,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,12 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,35 +664,35 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1">
         <v>0</v>
       </c>
@@ -702,7 +705,7 @@
       <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,10 +1143,10 @@
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>1E-3</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>B27/4</f>
         <v>2.5000000000000001E-4</v>
       </c>
@@ -1197,35 +1200,35 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1">
         <v>0</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1630,23 +1633,23 @@
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>B25/4</f>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1670,7 +1673,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,35 +1704,35 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1">
         <v>0</v>
       </c>
@@ -1742,7 +1745,7 @@
       <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1789,10 +1792,10 @@
       <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1813,10 +1816,10 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="N5" s="16">
+      <c r="N5" s="7">
         <v>11454</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1837,10 +1840,10 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="16">
+      <c r="N6" s="7">
         <v>7423</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1865,10 +1868,10 @@
         <v>13</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="N7" s="16">
+      <c r="N7" s="7">
         <v>3037</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1889,10 +1892,10 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="N8" s="16">
+      <c r="N8" s="7">
         <v>9023</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2208,12 +2211,12 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="6">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5">
         <v>30939</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>B27/4</f>
         <v>7734.75</v>
       </c>

--- a/PruebaEscritorio_I1.xlsx
+++ b/PruebaEscritorio_I1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Google Drive (baparedess@correo.udistrital.edu.co)\Universidad\2020-1\Sistemas Operativos\Concurrencia_SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544A5C16-3762-408B-BEC1-385106670307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A6280-769D-41EE-95C4-1420A846F17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2A4E9956-16CF-4970-B6D4-1FBA21026BA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2A4E9956-16CF-4970-B6D4-1FBA21026BA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Caso 0" sheetId="1" r:id="rId1"/>
-    <sheet name="Caso 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Intento 1 caso 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Intento 1 caso 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Intento 1 caso 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Peterson caso 0" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>Sentencia</t>
   </si>
@@ -147,6 +148,42 @@
   </si>
   <si>
     <t xml:space="preserve">Tiempo de ejecución total (todos los procesos con tiempo aleatorio): </t>
+  </si>
+  <si>
+    <t>señales</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>señal[0] = true</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>turno = 1</t>
+  </si>
+  <si>
+    <t>señal[0] = false</t>
+  </si>
+  <si>
+    <t>señal[1] = true</t>
+  </si>
+  <si>
+    <t>turno = 0</t>
+  </si>
+  <si>
+    <t>señal[1] &amp;&amp; turno == 1 -&gt; false &amp;&amp; 1 == 1 -&gt; false &amp;&amp; false -&gt; false</t>
+  </si>
+  <si>
+    <t>señal[0] &amp;&amp; turno == 0 -&gt; false &amp;&amp; 0 == 0 -&gt; false &amp;&amp; false -&gt; false</t>
+  </si>
+  <si>
+    <t>señal[1] = false</t>
+  </si>
+  <si>
+    <t>Algoritmo de Peterson</t>
   </si>
 </sst>
 </file>
@@ -278,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -318,6 +355,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +680,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23567A70-9861-4EAB-AC68-5614745FE4F5}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -2251,4 +2296,163 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45B07F6-4E01-4CD9-97F1-36608B79ABA5}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <f>B14/4</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>